--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H2">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I2">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J2">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N2">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O2">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P2">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q2">
-        <v>161.0562017151758</v>
+        <v>1336.313302998604</v>
       </c>
       <c r="R2">
-        <v>161.0562017151758</v>
+        <v>12026.81972698743</v>
       </c>
       <c r="S2">
-        <v>0.1678086651586052</v>
+        <v>0.458877767870162</v>
       </c>
       <c r="T2">
-        <v>0.1678086651586052</v>
+        <v>0.458877767870162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H3">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I3">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J3">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P3">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q3">
-        <v>147.9727272716266</v>
+        <v>214.6066400242617</v>
       </c>
       <c r="R3">
-        <v>147.9727272716266</v>
+        <v>1931.459760218355</v>
       </c>
       <c r="S3">
-        <v>0.1541766512490045</v>
+        <v>0.07369395763962659</v>
       </c>
       <c r="T3">
-        <v>0.1541766512490045</v>
+        <v>0.07369395763962659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H4">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I4">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J4">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N4">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O4">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P4">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q4">
-        <v>490.0922104287498</v>
+        <v>754.85982001518</v>
       </c>
       <c r="R4">
-        <v>490.0922104287498</v>
+        <v>6793.73838013662</v>
       </c>
       <c r="S4">
-        <v>0.5106398807425083</v>
+        <v>0.2592119591162972</v>
       </c>
       <c r="T4">
-        <v>0.5106398807425083</v>
+        <v>0.2592119591162972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H5">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I5">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J5">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N5">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O5">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P5">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q5">
-        <v>11.33615615101487</v>
+        <v>66.91171437269979</v>
       </c>
       <c r="R5">
-        <v>11.33615615101487</v>
+        <v>602.2054293542981</v>
       </c>
       <c r="S5">
-        <v>0.01181143732108808</v>
+        <v>0.02297687081825182</v>
       </c>
       <c r="T5">
-        <v>0.01181143732108808</v>
+        <v>0.02297687081825182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H6">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I6">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J6">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N6">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O6">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P6">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q6">
-        <v>10.41525830473274</v>
+        <v>10.74575712713922</v>
       </c>
       <c r="R6">
-        <v>10.41525830473274</v>
+        <v>96.711814144253</v>
       </c>
       <c r="S6">
-        <v>0.01085192979088237</v>
+        <v>0.003689994729163962</v>
       </c>
       <c r="T6">
-        <v>0.01085192979088237</v>
+        <v>0.003689994729163962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H7">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I7">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J7">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N7">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O7">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P7">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q7">
-        <v>34.49579567039328</v>
+        <v>37.797247512948</v>
       </c>
       <c r="R7">
-        <v>34.49579567039328</v>
+        <v>340.175227616532</v>
       </c>
       <c r="S7">
-        <v>0.03594207092546401</v>
+        <v>0.01297922914593311</v>
       </c>
       <c r="T7">
-        <v>0.03594207092546401</v>
+        <v>0.01297922914593311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.10584793980201</v>
+        <v>4.924119999999999</v>
       </c>
       <c r="H8">
-        <v>2.10584793980201</v>
+        <v>14.77236</v>
       </c>
       <c r="I8">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="J8">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N8">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O8">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P8">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q8">
-        <v>21.0394554712313</v>
+        <v>284.5002148424267</v>
       </c>
       <c r="R8">
-        <v>21.0394554712313</v>
+        <v>2560.50193358184</v>
       </c>
       <c r="S8">
-        <v>0.02192155844166142</v>
+        <v>0.09769477206619617</v>
       </c>
       <c r="T8">
-        <v>0.02192155844166142</v>
+        <v>0.09769477206619614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.10584793980201</v>
+        <v>4.924119999999999</v>
       </c>
       <c r="H9">
-        <v>2.10584793980201</v>
+        <v>14.77236</v>
       </c>
       <c r="I9">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="J9">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N9">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O9">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P9">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q9">
-        <v>19.33030565251861</v>
+        <v>45.68961115369333</v>
       </c>
       <c r="R9">
-        <v>19.33030565251861</v>
+        <v>411.20650038324</v>
       </c>
       <c r="S9">
-        <v>0.02014075058341162</v>
+        <v>0.01568939464571383</v>
       </c>
       <c r="T9">
-        <v>0.02014075058341162</v>
+        <v>0.01568939464571383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.10584793980201</v>
+        <v>4.924119999999999</v>
       </c>
       <c r="H10">
-        <v>2.10584793980201</v>
+        <v>14.77236</v>
       </c>
       <c r="I10">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="J10">
-        <v>0.1087693648124475</v>
+        <v>0.1685702206805652</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N10">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O10">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P10">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q10">
-        <v>64.02282636932075</v>
+        <v>160.70915442384</v>
       </c>
       <c r="R10">
-        <v>64.02282636932075</v>
+        <v>1446.38238981456</v>
       </c>
       <c r="S10">
-        <v>0.06670705578737444</v>
+        <v>0.05518605396865524</v>
       </c>
       <c r="T10">
-        <v>0.06670705578737444</v>
+        <v>0.05518605396865524</v>
       </c>
     </row>
   </sheetData>
